--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACF/20/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACF/20/seed5/result_data_RandomForest.xlsx
@@ -485,7 +485,7 @@
         <v>4.54</v>
       </c>
       <c r="C3" t="n">
-        <v>-13.2856</v>
+        <v>-13.127</v>
       </c>
       <c r="D3" t="n">
         <v>-6.85</v>
@@ -502,7 +502,7 @@
         <v>4.04</v>
       </c>
       <c r="C4" t="n">
-        <v>-14.47780000000001</v>
+        <v>-14.55030000000001</v>
       </c>
       <c r="D4" t="n">
         <v>-7.43</v>
@@ -542,7 +542,7 @@
         <v>-8.59</v>
       </c>
       <c r="E6" t="n">
-        <v>12.4203</v>
+        <v>12.27649999999999</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>6.56</v>
       </c>
       <c r="C7" t="n">
-        <v>-11.6312</v>
+        <v>-11.6825</v>
       </c>
       <c r="D7" t="n">
         <v>-9.31</v>
       </c>
       <c r="E7" t="n">
-        <v>12.906</v>
+        <v>12.8177</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>7.52</v>
       </c>
       <c r="C8" t="n">
-        <v>-12.28109999999999</v>
+        <v>-12.00909999999999</v>
       </c>
       <c r="D8" t="n">
         <v>-7.09</v>
       </c>
       <c r="E8" t="n">
-        <v>13.46620000000001</v>
+        <v>13.38160000000001</v>
       </c>
     </row>
     <row r="9">
@@ -615,7 +615,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-21.89490000000002</v>
+        <v>-21.88100000000003</v>
       </c>
       <c r="B11" t="n">
         <v>6.01</v>
@@ -632,13 +632,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.48040000000001</v>
+        <v>-21.43930000000001</v>
       </c>
       <c r="B12" t="n">
         <v>5.38</v>
       </c>
       <c r="C12" t="n">
-        <v>-12.7985</v>
+        <v>-11.8622</v>
       </c>
       <c r="D12" t="n">
         <v>-10.06</v>
@@ -672,7 +672,7 @@
         <v>8.33</v>
       </c>
       <c r="C14" t="n">
-        <v>-11.27739999999999</v>
+        <v>-11.47999999999999</v>
       </c>
       <c r="D14" t="n">
         <v>-7.97</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-21.24600000000001</v>
+        <v>-21.26790000000001</v>
       </c>
       <c r="B15" t="n">
         <v>5.53</v>
@@ -763,7 +763,7 @@
         <v>-8.470000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>12.7898</v>
+        <v>12.76289999999999</v>
       </c>
     </row>
     <row r="20">
@@ -797,7 +797,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>12.83789999999999</v>
+        <v>12.87149999999999</v>
       </c>
     </row>
     <row r="22">
@@ -808,7 +808,7 @@
         <v>4.26</v>
       </c>
       <c r="C22" t="n">
-        <v>-11.00049999999999</v>
+        <v>-11.05549999999998</v>
       </c>
       <c r="D22" t="n">
         <v>-5.14</v>
@@ -848,7 +848,7 @@
         <v>-9.24</v>
       </c>
       <c r="E24" t="n">
-        <v>12.86479999999999</v>
+        <v>12.79969999999998</v>
       </c>
     </row>
     <row r="25">
@@ -865,7 +865,7 @@
         <v>-7.71</v>
       </c>
       <c r="E25" t="n">
-        <v>13.42720000000001</v>
+        <v>13.40530000000001</v>
       </c>
     </row>
   </sheetData>
